--- a/src/lib/sample-excels/orderExcelSample.xlsx
+++ b/src/lib/sample-excels/orderExcelSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehoon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehoon/study/electron/sample1/src/lib/sample-excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41CAB00-D97D-E94B-92A9-4FDF7B494F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB056A8-472C-9741-B416-0716A330805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2880" yWindow="-19560" windowWidth="27700" windowHeight="15880" xr2:uid="{788AD86A-ED83-404D-8161-D4CA795EA9A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>상품주문번호</t>
   </si>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>배송희망일</t>
+  </si>
+  <si>
+    <t>스토어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,18 +611,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C894F4-538D-F249-BD0A-77B8F54A140B}">
-  <dimension ref="A1:BL1"/>
+  <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="64" width="20.7109375" customWidth="1"/>
+    <col min="1" max="65" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,6 +814,9 @@
       </c>
       <c r="BL1" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
